--- a/Map.xlsx
+++ b/Map.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isair\IdeaProjects\CE203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isair\IdeaProjects\CE203Ass2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8408E47F-8D40-4A6B-922B-7C3EE15805C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB275D33-FF8C-4019-BA85-C00EF0404B87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{764D6E05-1270-4353-A626-D9626C73D7EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" xr2:uid="{764D6E05-1270-4353-A626-D9626C73D7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="8">
   <si>
     <t>W</t>
   </si>
@@ -52,6 +46,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -93,49 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -175,111 +130,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -603,15 +453,15 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="20" width="3.5703125" customWidth="1"/>
+    <col min="1" max="20" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,26 +523,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -700,31 +598,73 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
       <c r="I3" t="s">
         <v>0</v>
       </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
       <c r="K3" t="s">
         <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
+        <v>7</v>
       </c>
       <c r="P3" t="s">
         <v>6</v>
       </c>
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
       <c r="T3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" t="s">
         <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -735,14 +675,41 @@
       <c r="I4" t="s">
         <v>0</v>
       </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
       <c r="K4" t="s">
         <v>0</v>
       </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -764,60 +731,138 @@
       <c r="G5" t="s">
         <v>0</v>
       </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
       <c r="I5" t="s">
         <v>0</v>
       </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
       <c r="K5" t="s">
         <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
       </c>
       <c r="N5" t="s">
         <v>3</v>
       </c>
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
       <c r="Q5" t="s">
         <v>3</v>
       </c>
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" t="s">
+        <v>7</v>
+      </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" t="s">
         <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
       </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
       <c r="I6" t="s">
         <v>0</v>
       </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" t="s">
+        <v>7</v>
+      </c>
       <c r="T6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" t="s">
         <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
       </c>
       <c r="K7" t="s">
         <v>0</v>
@@ -850,44 +895,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" t="s">
         <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
       </c>
       <c r="K8" t="s">
         <v>1</v>
       </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
       <c r="M8" t="s">
         <v>0</v>
       </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
       <c r="T8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
       </c>
       <c r="M9" t="s">
         <v>0</v>
@@ -895,28 +1000,79 @@
       <c r="N9" t="s">
         <v>2</v>
       </c>
+      <c r="O9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>7</v>
+      </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
       <c r="J10" t="s">
         <v>0</v>
       </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
       <c r="M10" t="s">
         <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
       </c>
       <c r="S10" t="s">
         <v>4</v>
@@ -925,9 +1081,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -935,26 +1100,50 @@
       <c r="F11" t="s">
         <v>0</v>
       </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
       <c r="L11" t="s">
         <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" t="s">
+        <v>7</v>
       </c>
       <c r="P11" t="s">
         <v>5</v>
       </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" t="s">
+        <v>7</v>
+      </c>
       <c r="T11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -973,20 +1162,50 @@
       <c r="F12" t="s">
         <v>0</v>
       </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
       <c r="J12" t="s">
         <v>0</v>
       </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" t="s">
+        <v>7</v>
+      </c>
       <c r="T12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -996,14 +1215,29 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" t="s">
         <v>3</v>
       </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
       <c r="H13" t="s">
         <v>0</v>
       </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
       <c r="J13" t="s">
         <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
       </c>
       <c r="L13" t="s">
         <v>0</v>
@@ -1011,14 +1245,29 @@
       <c r="M13" t="s">
         <v>4</v>
       </c>
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
       <c r="P13" t="s">
         <v>4</v>
       </c>
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" t="s">
+        <v>7</v>
+      </c>
       <c r="T13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1028,6 +1277,9 @@
       <c r="C14" t="s">
         <v>0</v>
       </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
@@ -1039,6 +1291,9 @@
       </c>
       <c r="H14" t="s">
         <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
       </c>
       <c r="J14" t="s">
         <v>0</v>
@@ -1074,36 +1329,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" t="s">
         <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
       </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
       <c r="J15" t="s">
         <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" t="s">
+        <v>7</v>
       </c>
       <c r="Q15" t="s">
         <v>1</v>
       </c>
+      <c r="R15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" t="s">
+        <v>7</v>
+      </c>
       <c r="T15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" t="s">
         <v>0</v>
       </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
       <c r="G16" t="s">
         <v>0</v>
       </c>
@@ -1137,25 +1443,70 @@
       <c r="Q16" t="s">
         <v>0</v>
       </c>
+      <c r="R16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" t="s">
+        <v>7</v>
+      </c>
       <c r="T16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" t="s">
         <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
       </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" t="s">
+        <v>7</v>
+      </c>
       <c r="Q17" t="s">
         <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>7</v>
       </c>
       <c r="S17" t="s">
         <v>3</v>
@@ -1164,13 +1515,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" t="s">
         <v>0</v>
       </c>
@@ -1204,28 +1561,76 @@
       <c r="O18" t="s">
         <v>0</v>
       </c>
+      <c r="P18" t="s">
+        <v>7</v>
+      </c>
       <c r="Q18" t="s">
         <v>0</v>
       </c>
+      <c r="R18" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" t="s">
+        <v>7</v>
+      </c>
       <c r="T18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" t="s">
         <v>1</v>
       </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
       <c r="M19" t="s">
         <v>3</v>
       </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
       <c r="Q19" t="s">
         <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>7</v>
       </c>
       <c r="S19" t="s">
         <v>2</v>
@@ -1234,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1298,25 +1703,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"W"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"DE"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isair\IdeaProjects\CE203Ass2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB275D33-FF8C-4019-BA85-C00EF0404B87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1CE15782-2BA5-4E70-8A84-3BE423905DC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" xr2:uid="{764D6E05-1270-4353-A626-D9626C73D7EB}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O5" t="s">
         <v>7</v>
@@ -968,7 +968,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1461,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1523,7 +1523,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
